--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303475.543112943</v>
+        <v>319233.1861841195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776013</v>
+        <v>2995243.61350639</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738131</v>
+        <v>4813416.780476121</v>
       </c>
     </row>
     <row r="11">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,52 +1932,52 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H18" t="n">
+      <c r="S18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I18" t="n">
+      <c r="T18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2041,31 +2041,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27.59002526031614</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="W19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4031921034048</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>161.6951706354068</v>
       </c>
     </row>
     <row r="22">
@@ -2245,55 +2245,55 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,61 +2330,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1707074715826</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,67 +2552,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>62.52515684565935</v>
+        <v>104.0965463436132</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,65 +2792,65 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>47.8990561432278</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,13 +2886,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>35.78188170776586</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,64 +2947,64 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>220.2131257424249</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>46.22384331484442</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,22 +3272,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>19.49688054042759</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>179.7283339446664</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30.22545560005763</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.4303350649351</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>190.9324654410926</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>33.5182521764279</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>143.3007555805989</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.560455212839</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D17" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E17" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F17" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G17" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H17" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I17" t="n">
         <v>2.207202020825291</v>
@@ -5519,7 +5519,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M17" t="n">
         <v>28.41772601812563</v>
@@ -5549,16 +5549,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="V17" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W17" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X17" t="n">
-        <v>30.07591440498301</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="C18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F18" t="n">
-        <v>85.81333917329844</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G18" t="n">
-        <v>57.94462678914073</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I18" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>55.73185102583861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M18" t="n">
-        <v>55.73185102583861</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N18" t="n">
         <v>55.73185102583861</v>
@@ -5610,34 +5610,34 @@
         <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="V18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="W18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="X18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="19">
@@ -5689,28 +5689,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4888536788635</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4888536788635</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="V19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
         <v>2.207202020825291</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5771,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>130.5435506149225</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
         <v>20.03527576299844</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.587349213889</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.43786719673733</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C27" t="n">
-        <v>82.43786719673733</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D27" t="n">
-        <v>82.43786719673733</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="E27" t="n">
-        <v>82.43786719673733</v>
+        <v>362.0174894886673</v>
       </c>
       <c r="F27" t="n">
-        <v>82.43786719673733</v>
+        <v>215.4829315155523</v>
       </c>
       <c r="G27" t="n">
-        <v>82.43786719673733</v>
+        <v>215.4829315155523</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>290.1981659616912</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>290.1981659616912</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.43786719673733</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="28">
@@ -6403,16 +6403,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.9294114938717</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C30" t="n">
-        <v>304.5465265007123</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D30" t="n">
-        <v>304.5465265007123</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>341.4439740098271</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>194.9094160367121</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>56.17859061932759</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="31">
@@ -6652,19 +6652,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="X32" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y32" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>426.43660147347</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>487.4018176583718</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C35" t="n">
-        <v>487.4018176583718</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="D35" t="n">
-        <v>487.4018176583718</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="E35" t="n">
-        <v>487.4018176583718</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F35" t="n">
-        <v>487.4018176583718</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>487.4018176583718</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>487.4018176583718</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y35" t="n">
-        <v>487.4018176583718</v>
+        <v>644.0062961027915</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>740.712642557294</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>740.712642557294</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>740.712642557294</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>740.712642557294</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>523.1429479279725</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>315.2914477224397</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C38" t="n">
-        <v>761.6974622895962</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>761.6974622895962</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>518.2486856454962</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="X38" t="n">
-        <v>812.6742080953335</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="Y38" t="n">
-        <v>812.6742080953335</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C39" t="n">
-        <v>688.4345967823949</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>539.5001871211437</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>660.1312078382391</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>442.5615132089176</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>224.9918185795962</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="C41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="D41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="E41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="F41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="G41" t="n">
-        <v>241.7458389934465</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="H41" t="n">
-        <v>241.7458389934465</v>
+        <v>229.6758497463631</v>
       </c>
       <c r="I41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0889470003098</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
         <v>197.6975058462639</v>
@@ -7433,28 +7433,28 @@
         <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>702.3141070540689</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>491.182723633619</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>457.3259032533888</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>457.3259032533888</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>241.7458389934465</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>241.7458389934465</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X41" t="n">
-        <v>241.7458389934465</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.7458389934465</v>
+        <v>638.1169902094293</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D42" t="n">
-        <v>506.7622218679369</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>506.7622218679369</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>360.2276638948218</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4968384774373</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>108.1277028850167</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
@@ -7497,43 +7497,43 @@
         <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>565.0115431095638</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N42" t="n">
-        <v>565.0115431095638</v>
+        <v>459.7635558748512</v>
       </c>
       <c r="O42" t="n">
-        <v>601.6590183426915</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>853.6970544693717</v>
+        <v>823.8380087998373</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>650.4206642505062</v>
       </c>
       <c r="T42" t="n">
-        <v>651.5104598281378</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="U42" t="n">
-        <v>651.5104598281378</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="V42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y42" t="n">
-        <v>651.5104598281378</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="43">
@@ -7594,13 +7594,13 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
         <v>17.07394108938743</v>
@@ -8459,16 +8459,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8702,10 +8702,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8930,19 +8930,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9167,10 +9167,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
         <v>257.0030888569071</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>141.3136102931414</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>214.041819273966</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,16 +10829,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>249.5274280969312</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
-        <v>314.1588986527692</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>443.7704968446156</v>
@@ -11145,19 +11145,19 @@
         <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>238.4548774837949</v>
       </c>
       <c r="O42" t="n">
-        <v>179.6138961950785</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23261,13 +23261,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>332.1166891364521</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>178.3449675368486</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>139.0314613895673</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>414.6763736000615</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,16 +23577,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>124.8787130804079</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>2.424580076758538</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23735,7 +23735,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>303.4509642208484</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>202.3866791579462</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23929,31 +23929,31 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>232.4103246984251</v>
       </c>
       <c r="W19" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>203.2608960285278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,7 +24063,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8322521330917</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,7 +24102,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>43.98752514189758</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,10 +24218,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>19.53779151673311</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,10 +24303,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>49.71028739083711</v>
+        <v>8.13889789288325</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2941050228172</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>124.8094428450879</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,13 +24774,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>76.4535625287306</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>195.0896117727101</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>176.8720062492869</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>16.05395204426628</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>193.0148085042693</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,22 +25160,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>268.2355910624801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>152.1862905634102</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.2668633158006</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>206.5096047113872</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>127.4196248553433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0.7343936298865401</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25606,10 +25606,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>191.801376222388</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,13 +25643,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>126.0505384984242</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>189.5775973877035</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>114.327994852792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25710,25 +25710,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>4.144309984039893</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>70.59737893980414</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>19.37632353208235</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351700.8745024337</v>
+        <v>351700.8745024338</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008513</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008511</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306332</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008511</v>
+        <v>488505.1665306335</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008514</v>
+        <v>488505.1665306333</v>
       </c>
     </row>
     <row r="15">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237261</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237264</v>
       </c>
       <c r="G2" t="n">
-        <v>74945.90033124234</v>
+        <v>74945.90033124232</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26341,16 +26341,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.147631765</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="O2" t="n">
-        <v>103759.0573236672</v>
+        <v>103759.0573236673</v>
       </c>
       <c r="P2" t="n">
         <v>69879.81359544014</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="F4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="G4" t="n">
-        <v>24763.57099960299</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="O4" t="n">
-        <v>34590.32203425346</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>13216.43566918077</v>
+        <v>8449.081311463757</v>
       </c>
       <c r="E6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525193</v>
       </c>
       <c r="F6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525195</v>
       </c>
       <c r="G6" t="n">
-        <v>40942.84372233837</v>
+        <v>49612.76865095561</v>
       </c>
       <c r="H6" t="n">
-        <v>-271.231096148811</v>
+        <v>2117.134455014952</v>
       </c>
       <c r="I6" t="n">
-        <v>57312.55604618292</v>
+        <v>59700.92159734665</v>
       </c>
       <c r="J6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="K6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="L6" t="n">
-        <v>57312.5560461829</v>
+        <v>58572.55162492803</v>
       </c>
       <c r="M6" t="n">
-        <v>57312.5560461829</v>
+        <v>58572.551624928</v>
       </c>
       <c r="N6" t="n">
-        <v>57312.55604618289</v>
+        <v>58572.551624928</v>
       </c>
       <c r="O6" t="n">
-        <v>56192.54006147933</v>
+        <v>58485.80051205098</v>
       </c>
       <c r="P6" t="n">
-        <v>46844.03566918074</v>
+        <v>48378.33248915085</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>27.59002526031614</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>80.06741185963574</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>110.973048317057</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
-        <v>78.39248368278189</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>213.4242636173429</v>
@@ -37865,19 +37865,19 @@
         <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>107.1131654004615</v>
+      </c>
+      <c r="O42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>37.01765175063403</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
